--- a/Resources/Data/Pt100.xlsx
+++ b/Resources/Data/Pt100.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rogiel/Documents/GitHub/ufrgs-instrumentacao-lab4/Resources/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="15075" windowHeight="4470"/>
+    <workbookView xWindow="6400" yWindow="460" windowWidth="25600" windowHeight="14200" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="Resistência" sheetId="1" r:id="rId1"/>
+    <sheet name="Ponte" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Pt100</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -37,31 +47,33 @@
     <t>Diferença</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>mV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -70,7 +82,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -78,9 +90,40 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -116,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -126,27 +169,64 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -156,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -181,18 +261,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -207,7 +311,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -229,7 +333,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$1</c:f>
+              <c:f>Resistência!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -245,106 +349,106 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$A$2:$A$31</c:f>
+              <c:f>Resistência!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$B$2:$B$31</c:f>
+              <c:f>Resistência!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -355,7 +459,7 @@
                   <c:v>108.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109</c:v>
+                  <c:v>109.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>109.4</c:v>
@@ -364,7 +468,7 @@
                   <c:v>110.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111</c:v>
+                  <c:v>111.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>111.9</c:v>
@@ -379,7 +483,7 @@
                   <c:v>114.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>115.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>115.7</c:v>
@@ -427,10 +531,10 @@
                   <c:v>126.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>127</c:v>
+                  <c:v>127.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>128.6</c:v>
@@ -448,7 +552,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$C$1</c:f>
+              <c:f>Resistência!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -469,111 +573,111 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$A$2:$A$31</c:f>
+              <c:f>Resistência!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$C$2:$C$31</c:f>
+              <c:f>Resistência!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>107.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>108.1</c:v>
@@ -627,13 +731,13 @@
                   <c:v>120.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>121</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>121.7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>123</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>123.3</c:v>
@@ -660,7 +764,7 @@
                   <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>129.30000000000001</c:v>
+                  <c:v>129.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -675,15 +779,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="62585600"/>
-        <c:axId val="62585024"/>
+        <c:axId val="-2083380272"/>
+        <c:axId val="-2083378912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62585600"/>
+        <c:axId val="-2083380272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80"/>
-          <c:min val="15"/>
+          <c:max val="80.0"/>
+          <c:min val="15.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -691,17 +795,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62585024"/>
+        <c:crossAx val="-2083378912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62585024"/>
+        <c:axId val="-2083378912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="135"/>
-          <c:min val="105"/>
+          <c:max val="135.0"/>
+          <c:min val="105.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -710,15 +814,24 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62585600"/>
+        <c:crossAx val="-2083380272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.726771533572437"/>
+          <c:y val="0.388281924287289"/>
+          <c:w val="0.252264109301225"/>
+          <c:h val="0.203199798170254"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -737,16 +850,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>282574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -769,7 +882,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -811,12 +924,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -846,12 +959,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1055,20 +1168,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1078,15 +1192,15 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>18</v>
       </c>
@@ -1100,8 +1214,20 @@
         <f>C2-B2</f>
         <v>0.20000000000000284</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>AVERAGE(B2:C2)</f>
+        <v>106.9</v>
+      </c>
+      <c r="G2">
+        <f>(E2+E31)/2</f>
+        <v>118.05</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE("{",A2,",",B2,"},"," {",A2,",",C2,"},")</f>
+        <v>{18,106.8}, {18,107},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -1115,8 +1241,16 @@
         <f t="shared" ref="D3:D31" si="0">C3-B3</f>
         <v>-0.30000000000001137</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E31" si="1">AVERAGE(B3:C3)</f>
+        <v>108.25</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H31" si="2">CONCATENATE("{",A3,",",B3,"},"," {",A3,",",C3,"},")</f>
+        <v>{20,108.4}, {20,108.1},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>22</v>
       </c>
@@ -1130,8 +1264,16 @@
         <f t="shared" si="0"/>
         <v>-9.9999999999994316E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>108.95</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>{22,109}, {22,108.9},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>24</v>
       </c>
@@ -1145,8 +1287,16 @@
         <f t="shared" si="0"/>
         <v>0.19999999999998863</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>109.5</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>{24,109.4}, {24,109.6},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>26</v>
       </c>
@@ -1160,8 +1310,16 @@
         <f t="shared" si="0"/>
         <v>0.20000000000000284</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>110.30000000000001</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>{26,110.2}, {26,110.4},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>28</v>
       </c>
@@ -1175,8 +1333,16 @@
         <f t="shared" si="0"/>
         <v>9.9999999999994316E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>111.05</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>{28,111}, {28,111.1},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>30</v>
       </c>
@@ -1190,8 +1356,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>111.9</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>{30,111.9}, {30,111.9},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>32</v>
       </c>
@@ -1205,8 +1379,16 @@
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>112.6</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>{32,112.7}, {32,112.5},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>34</v>
       </c>
@@ -1220,8 +1402,16 @@
         <f t="shared" si="0"/>
         <v>0.20000000000000284</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>113.4</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>{34,113.3}, {34,113.5},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>36</v>
       </c>
@@ -1235,8 +1425,16 @@
         <f t="shared" si="0"/>
         <v>0.10000000000000853</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>114.15</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>{36,114.1}, {36,114.2},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>38</v>
       </c>
@@ -1250,8 +1448,16 @@
         <f t="shared" si="0"/>
         <v>-9.9999999999994316E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>114.95</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>{38,115}, {38,114.9},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>40</v>
       </c>
@@ -1265,8 +1471,16 @@
         <f t="shared" si="0"/>
         <v>9.9999999999994316E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>115.75</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>{40,115.7}, {40,115.8},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42</v>
       </c>
@@ -1280,8 +1494,16 @@
         <f t="shared" si="0"/>
         <v>-0.19999999999998863</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>116.5</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>{42,116.6}, {42,116.4},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44</v>
       </c>
@@ -1295,8 +1517,16 @@
         <f t="shared" si="0"/>
         <v>0.10000000000000853</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>117.35</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>{44,117.3}, {44,117.4},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>46</v>
       </c>
@@ -1310,8 +1540,16 @@
         <f t="shared" si="0"/>
         <v>0.19999999999998863</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>{46,117.9}, {46,118.1},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>48</v>
       </c>
@@ -1325,8 +1563,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>118.8</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>{48,118.8}, {48,118.8},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>50</v>
       </c>
@@ -1340,8 +1586,16 @@
         <f t="shared" si="0"/>
         <v>0.20000000000000284</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>119.6</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>{50,119.5}, {50,119.7},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>52</v>
       </c>
@@ -1355,8 +1609,16 @@
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>120.69999999999999</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>{52,120.8}, {52,120.6},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>54</v>
       </c>
@@ -1370,8 +1632,16 @@
         <f t="shared" si="0"/>
         <v>-9.9999999999994316E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>121.05</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>{54,121.1}, {54,121},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>56</v>
       </c>
@@ -1385,8 +1655,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>121.7</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>{56,121.7}, {56,121.7},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>58</v>
       </c>
@@ -1400,8 +1678,16 @@
         <f t="shared" si="0"/>
         <v>0.29999999999999716</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>122.85</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>{58,122.7}, {58,123},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>60</v>
       </c>
@@ -1415,8 +1701,16 @@
         <f t="shared" si="0"/>
         <v>-0.10000000000000853</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>123.35</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>{60,123.4}, {60,123.3},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>62</v>
       </c>
@@ -1430,8 +1724,16 @@
         <f t="shared" si="0"/>
         <v>-0.30000000000001137</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>124.25</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>{62,124.4}, {62,124.1},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>64</v>
       </c>
@@ -1445,8 +1747,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>124.8</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>{64,124.8}, {64,124.8},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>66</v>
       </c>
@@ -1460,8 +1770,16 @@
         <f t="shared" si="0"/>
         <v>9.9999999999994316E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>125.45</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>{66,125.4}, {66,125.5},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>68</v>
       </c>
@@ -1475,8 +1793,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>126.3</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>{68,126.3}, {68,126.3},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>70</v>
       </c>
@@ -1490,8 +1816,16 @@
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>126.9</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>{70,127}, {70,126.8},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>72</v>
       </c>
@@ -1505,8 +1839,16 @@
         <f t="shared" si="0"/>
         <v>-9.9999999999994316E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>127.95</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>{72,128}, {72,127.9},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>74</v>
       </c>
@@ -1520,8 +1862,16 @@
         <f t="shared" si="0"/>
         <v>-9.9999999999994316E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>128.55000000000001</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>{74,128.6}, {74,128.5},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>76</v>
       </c>
@@ -1534,6 +1884,14 @@
       <c r="D31">
         <f t="shared" si="0"/>
         <v>0.20000000000001705</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>129.19999999999999</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>{76,129.1}, {76,129.3},</v>
       </c>
     </row>
   </sheetData>
@@ -1549,12 +1907,341 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>19.3</v>
+      </c>
+      <c r="C2">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C4">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>15.9</v>
+      </c>
+      <c r="C6">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>13.3</v>
+      </c>
+      <c r="C8">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>11.5</v>
+      </c>
+      <c r="C9">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>10.7</v>
+      </c>
+      <c r="C10">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>5.3</v>
+      </c>
+      <c r="C14" s="18">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>46</v>
+      </c>
+      <c r="B16" s="13">
+        <v>2.8</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>1.5</v>
+      </c>
+      <c r="C17">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>0.4</v>
+      </c>
+      <c r="C18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>-2.4</v>
+      </c>
+      <c r="C20">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>56</v>
+      </c>
+      <c r="B21" s="17">
+        <v>-7</v>
+      </c>
+      <c r="C21">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>58</v>
+      </c>
+      <c r="B22" s="17">
+        <v>-11</v>
+      </c>
+      <c r="C22" s="17">
+        <v>-9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>-5.7</v>
+      </c>
+      <c r="C23">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>62</v>
+      </c>
+      <c r="B24">
+        <v>-7.2</v>
+      </c>
+      <c r="C24">
+        <v>-7.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>64</v>
+      </c>
+      <c r="B25" s="17">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="C25" s="17">
+        <v>-17.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>66</v>
+      </c>
+      <c r="B26" s="17">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="C26">
+        <v>-10.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>68</v>
+      </c>
+      <c r="B27" s="10">
+        <v>-10.8</v>
+      </c>
+      <c r="C27">
+        <v>-10.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>70</v>
+      </c>
+      <c r="B28" s="17">
+        <v>-24.8</v>
+      </c>
+      <c r="C28">
+        <v>-12.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>72</v>
+      </c>
+      <c r="B29" s="17">
+        <v>-13.6</v>
+      </c>
+      <c r="C29">
+        <v>-13.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>74</v>
+      </c>
+      <c r="B30" s="17">
+        <v>-15</v>
+      </c>
+      <c r="C30">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>76</v>
+      </c>
+      <c r="B31" s="17">
+        <v>-31.7</v>
+      </c>
+      <c r="C31">
+        <v>-15.9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1566,7 +2253,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/Data/Pt100.xlsx
+++ b/Resources/Data/Pt100.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rogiel/Documents/GitHub/ufrgs-instrumentacao-lab4/Resources/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="460" windowWidth="25600" windowHeight="14200" activeTab="1"/>
+    <workbookView xWindow="6405" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resistência" sheetId="1" r:id="rId1"/>
     <sheet name="Ponte" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Pt100</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,30 +45,34 @@
   <si>
     <t>mV</t>
   </si>
+  <si>
+    <t>Temp.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -82,7 +81,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -90,7 +89,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -99,13 +98,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -113,7 +112,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -122,7 +121,7 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -236,7 +235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,21 +281,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -311,7 +313,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -354,94 +356,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -459,7 +461,7 @@
                   <c:v>108.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.0</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>109.4</c:v>
@@ -468,7 +470,7 @@
                   <c:v>110.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.0</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>111.9</c:v>
@@ -483,7 +485,7 @@
                   <c:v>114.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115.0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>115.7</c:v>
@@ -531,10 +533,10 @@
                   <c:v>126.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>127.0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>128.6</c:v>
@@ -578,94 +580,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,7 +679,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>107.0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>108.1</c:v>
@@ -731,13 +733,13 @@
                   <c:v>120.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>121.0</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>121.7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>123.0</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>123.3</c:v>
@@ -764,7 +766,7 @@
                   <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>129.3</c:v>
+                  <c:v>129.30000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,15 +781,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2083380272"/>
-        <c:axId val="-2083378912"/>
+        <c:axId val="106149504"/>
+        <c:axId val="106150080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2083380272"/>
+        <c:axId val="106149504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80.0"/>
-          <c:min val="15.0"/>
+          <c:max val="80"/>
+          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -795,17 +797,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2083378912"/>
+        <c:crossAx val="106150080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5.0"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2083378912"/>
+        <c:axId val="106150080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="135.0"/>
-          <c:min val="105.0"/>
+          <c:max val="135"/>
+          <c:min val="105"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -814,10 +816,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2083380272"/>
+        <c:crossAx val="106149504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -826,10 +828,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.726771533572437"/>
-          <c:y val="0.388281924287289"/>
+          <c:x val="0.72677153357243696"/>
+          <c:y val="0.38828192428728903"/>
           <c:w val="0.252264109301225"/>
-          <c:h val="0.203199798170254"/>
+          <c:h val="0.20319979817025399"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -924,7 +926,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -959,7 +961,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1174,15 +1176,15 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1195,12 +1197,12 @@
       <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>18</v>
       </c>
@@ -1227,7 +1229,7 @@
         <v>{18,106.8}, {18,107},</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -1250,7 +1252,7 @@
         <v>{20,108.4}, {20,108.1},</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>22</v>
       </c>
@@ -1273,7 +1275,7 @@
         <v>{22,109}, {22,108.9},</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>24</v>
       </c>
@@ -1296,7 +1298,7 @@
         <v>{24,109.4}, {24,109.6},</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="7" customFormat="1">
       <c r="A6" s="6">
         <v>26</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>{26,110.2}, {26,110.4},</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>28</v>
       </c>
@@ -1342,7 +1344,7 @@
         <v>{28,111}, {28,111.1},</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>30</v>
       </c>
@@ -1365,7 +1367,7 @@
         <v>{30,111.9}, {30,111.9},</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>32</v>
       </c>
@@ -1388,7 +1390,7 @@
         <v>{32,112.7}, {32,112.5},</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>34</v>
       </c>
@@ -1411,7 +1413,7 @@
         <v>{34,113.3}, {34,113.5},</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>36</v>
       </c>
@@ -1434,7 +1436,7 @@
         <v>{36,114.1}, {36,114.2},</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>38</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>{38,115}, {38,114.9},</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>40</v>
       </c>
@@ -1480,7 +1482,7 @@
         <v>{40,115.7}, {40,115.8},</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>42</v>
       </c>
@@ -1503,7 +1505,7 @@
         <v>{42,116.6}, {42,116.4},</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>44</v>
       </c>
@@ -1526,7 +1528,7 @@
         <v>{44,117.3}, {44,117.4},</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>46</v>
       </c>
@@ -1549,7 +1551,7 @@
         <v>{46,117.9}, {46,118.1},</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>48</v>
       </c>
@@ -1572,7 +1574,7 @@
         <v>{48,118.8}, {48,118.8},</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>50</v>
       </c>
@@ -1595,7 +1597,7 @@
         <v>{50,119.5}, {50,119.7},</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>52</v>
       </c>
@@ -1618,7 +1620,7 @@
         <v>{52,120.8}, {52,120.6},</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>54</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>{54,121.1}, {54,121},</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>56</v>
       </c>
@@ -1664,7 +1666,7 @@
         <v>{56,121.7}, {56,121.7},</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="6">
         <v>58</v>
       </c>
@@ -1687,7 +1689,7 @@
         <v>{58,122.7}, {58,123},</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>60</v>
       </c>
@@ -1710,7 +1712,7 @@
         <v>{60,123.4}, {60,123.3},</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="6">
         <v>62</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>{62,124.4}, {62,124.1},</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>64</v>
       </c>
@@ -1756,7 +1758,7 @@
         <v>{64,124.8}, {64,124.8},</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>66</v>
       </c>
@@ -1779,7 +1781,7 @@
         <v>{66,125.4}, {66,125.5},</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>68</v>
       </c>
@@ -1802,7 +1804,7 @@
         <v>{68,126.3}, {68,126.3},</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>70</v>
       </c>
@@ -1825,7 +1827,7 @@
         <v>{70,127}, {70,126.8},</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>72</v>
       </c>
@@ -1848,7 +1850,7 @@
         <v>{72,128}, {72,127.9},</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="5">
         <v>74</v>
       </c>
@@ -1871,7 +1873,7 @@
         <v>{74,128.6}, {74,128.5},</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>76</v>
       </c>
@@ -1907,341 +1909,353 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="10"/>
+    <col min="1" max="1" width="8.875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9">
         <v>18</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>19.3</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>21.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+    <row r="4" spans="1:7">
+      <c r="A4" s="9">
         <v>20</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+    <row r="5" spans="1:7">
+      <c r="A5" s="9">
         <v>22</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>17.399999999999999</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+    <row r="6" spans="1:7">
+      <c r="A6" s="9">
         <v>24</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>16.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+    <row r="7" spans="1:7">
+      <c r="A7" s="9">
         <v>26</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>15.9</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>16.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+    <row r="8" spans="1:7">
+      <c r="A8" s="9">
         <v>28</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+    <row r="9" spans="1:7">
+      <c r="A9" s="9">
         <v>30</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>13.3</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>13.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+    <row r="10" spans="1:7">
+      <c r="A10" s="9">
         <v>32</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>11.5</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>11.4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+    <row r="11" spans="1:7">
+      <c r="A11" s="9">
         <v>34</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>10.7</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>10.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+    <row r="12" spans="1:7">
+      <c r="A12" s="9">
         <v>36</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+    <row r="13" spans="1:7">
+      <c r="A13" s="9">
         <v>38</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>8.1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+    <row r="14" spans="1:7">
+      <c r="A14" s="9">
         <v>40</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>6.7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+    <row r="15" spans="1:7">
+      <c r="A15" s="9">
         <v>42</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>5.3</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C15" s="16">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+    <row r="16" spans="1:7" s="11" customFormat="1">
+      <c r="A16" s="9">
         <v>44</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="12">
         <v>46</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B17" s="13">
         <v>2.8</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C17" s="14">
         <v>2.6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+    <row r="18" spans="1:3">
+      <c r="A18" s="9">
         <v>48</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>1.5</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>1.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+    <row r="19" spans="1:3">
+      <c r="A19" s="9">
         <v>50</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>0.4</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+    <row r="20" spans="1:3">
+      <c r="A20" s="9">
         <v>52</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>-1</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+    <row r="21" spans="1:3">
+      <c r="A21" s="9">
         <v>54</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>-2.4</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>-1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+    <row r="22" spans="1:3">
+      <c r="A22" s="9">
         <v>56</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B22" s="15">
         <v>-7</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>-3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+    <row r="23" spans="1:3">
+      <c r="A23" s="9">
         <v>58</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B23" s="15">
         <v>-11</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C23" s="15">
         <v>-9.8000000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
+    <row r="24" spans="1:3">
+      <c r="A24" s="9">
         <v>60</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>-5.7</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>-6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
+    <row r="25" spans="1:3">
+      <c r="A25" s="9">
         <v>62</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>-7.2</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>-7.2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
+    <row r="26" spans="1:3">
+      <c r="A26" s="9">
         <v>64</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B26" s="15">
         <v>-17.600000000000001</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C26" s="15">
         <v>-17.3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
+    <row r="27" spans="1:3">
+      <c r="A27" s="9">
         <v>66</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B27" s="15">
         <v>-19.600000000000001</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>-10.1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
+    <row r="28" spans="1:3">
+      <c r="A28" s="9">
         <v>68</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B28" s="10">
         <v>-10.8</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>-10.9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
+    <row r="29" spans="1:3">
+      <c r="A29" s="9">
         <v>70</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B29" s="15">
         <v>-24.8</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>-12.3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
+    <row r="30" spans="1:3">
+      <c r="A30" s="9">
         <v>72</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B30" s="15">
         <v>-13.6</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>-13.8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
+    <row r="31" spans="1:3">
+      <c r="A31" s="9">
         <v>74</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B31" s="15">
         <v>-15</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>-15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
+    <row r="32" spans="1:3">
+      <c r="A32" s="9">
         <v>76</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B32" s="15">
         <v>-31.7</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>-15.9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2253,7 +2267,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/Data/Pt100.xlsx
+++ b/Resources/Data/Pt100.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheila\Desktop\Instrumentação\Github\ufrgs-instrumentacao-lab4\Resources\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="6405" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Resistência" sheetId="1" r:id="rId1"/>
     <sheet name="Ponte" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>Pt100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resistência 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resistência 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>escala de 200 ohm</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -49,30 +41,120 @@
     <t>Temp.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>média</t>
+  </si>
+  <si>
+    <t>Medida 1 (mV)</t>
+  </si>
+  <si>
+    <t>Medida 2 (mV)</t>
+  </si>
+  <si>
+    <t>Temperatura (ºC)</t>
+  </si>
+  <si>
+    <t>Pt100</t>
+  </si>
+  <si>
+    <r>
+      <t>Medida 1 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Medida 2 (Ω)</t>
+  </si>
+  <si>
+    <r>
+      <t>Temp. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C)</t>
+    </r>
+  </si>
+  <si>
+    <t>alpha (18-76) - medido</t>
+  </si>
+  <si>
+    <t>alpha (18-76) - calculado</t>
+  </si>
+  <si>
+    <t>Calculado</t>
+  </si>
+  <si>
+    <t>alpha (0-100) - calculado</t>
+  </si>
+  <si>
+    <t>Média (Ω)</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Ajustada</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -81,7 +163,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -89,7 +171,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -98,13 +180,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -112,7 +194,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -121,9 +203,21 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -235,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -287,24 +381,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -313,7 +416,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -324,6 +427,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Amostras</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Experimentais Pt100</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -335,23 +499,40 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resistência!$B$1</c:f>
+              <c:f>Resistência!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Resistência 1</c:v>
+                  <c:v>Medida 1 (Ω)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="28575" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Resistência!$A$2:$A$31</c:f>
+              <c:f>Resistência!$A$3:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -450,7 +631,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Resistência!$B$2:$B$31</c:f>
+              <c:f>Resistência!$B$3:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -554,28 +735,40 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resistência!$C$1</c:f>
+              <c:f>Resistência!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Resistência 2</c:v>
+                  <c:v>Medida 2 (Ω)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="28575" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Resistência!$A$2:$A$31</c:f>
+              <c:f>Resistência!$A$3:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -674,7 +867,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Resistência!$C$2:$C$31</c:f>
+              <c:f>Resistência!$C$3:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -767,6 +960,290 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>129.30000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resistência!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média (Ω)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6261930993297022E-2"/>
+                  <c:y val="0.48268036622524402"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Resistência!$A$3:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Resistência!$E$3:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>106.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>111.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>114.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>114.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>116.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>117.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>118.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>119.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>122.85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>123.35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>124.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>124.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125.45</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>126.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>126.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>127.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>128.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>129.19999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,11 +1258,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106149504"/>
-        <c:axId val="106150080"/>
+        <c:axId val="481645856"/>
+        <c:axId val="481653304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106149504"/>
+        <c:axId val="481645856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -793,79 +1270,2529 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Temperatura</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>°C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106150080"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481653304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106150080"/>
+        <c:axId val="481653304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="135"/>
-          <c:min val="105"/>
+          <c:max val="130"/>
+          <c:min val="106"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Resistência</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> Elétrica (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" baseline="0"/>
+                  <a:t>Ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106149504"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481645856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.72677153357243696"/>
-          <c:y val="0.38828192428728903"/>
-          <c:w val="0.252264109301225"/>
-          <c:h val="0.20319979817025399"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ponte!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medida 1 (mV)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ponte!$E$3:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ponte!$F$3:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-12.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-13.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-16.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ponte!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medida 2 (mV)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ponte!$E$3:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ponte!$G$3:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-12.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-13.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-15.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ponte!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.4349518810148728E-2"/>
+                  <c:y val="-0.69516149023038787"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ponte!$E$3:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ponte!$H$3:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>21.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-12.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-13.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-16.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="481639584"/>
+        <c:axId val="481638800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="481639584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481638800"/>
+        <c:crossesAt val="-20"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="481638800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481639584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>282574</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508907</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>159735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>282575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>310005</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4494</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="3" name="Gráfico 2" title="Curva de "/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1170,735 +4097,911 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="8.375" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>18</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>106.8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>107</v>
       </c>
-      <c r="D2">
-        <f>C2-B2</f>
+      <c r="D3">
+        <f>C3-B3</f>
         <v>0.20000000000000284</v>
       </c>
-      <c r="E2">
-        <f>AVERAGE(B2:C2)</f>
+      <c r="E3" s="20">
+        <f>AVERAGE(B3:C3)</f>
         <v>106.9</v>
       </c>
-      <c r="G2">
-        <f>(E2+E31)/2</f>
+      <c r="F3" s="20">
+        <f>(0.381*A3)+100.46</f>
+        <v>107.318</v>
+      </c>
+      <c r="H3">
+        <f>(E3+E32)/2</f>
         <v>118.05</v>
       </c>
-      <c r="H2" t="str">
-        <f>CONCATENATE("{",A2,",",B2,"},"," {",A2,",",C2,"},")</f>
-        <v>{18,106.8}, {18,107},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="I3" t="str">
+        <f>CONCATENATE("{",A3,",",B3,"},"," {",A3,",",C3,"},")</f>
+        <v>{18,106,8}, {18,107},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>20</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>108.4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>108.1</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D31" si="0">C3-B3</f>
+      <c r="D4">
+        <f t="shared" ref="D4:D32" si="0">C4-B4</f>
         <v>-0.30000000000001137</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E31" si="1">AVERAGE(B3:C3)</f>
+      <c r="E4" s="20">
+        <f t="shared" ref="E4:E32" si="1">AVERAGE(B4:C4)</f>
         <v>108.25</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H31" si="2">CONCATENATE("{",A3,",",B3,"},"," {",A3,",",C3,"},")</f>
-        <v>{20,108.4}, {20,108.1},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="F4" s="20">
+        <f t="shared" ref="F4:F34" si="2">(0.381*A4)+100.46</f>
+        <v>108.08</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I32" si="3">CONCATENATE("{",A4,",",B4,"},"," {",A4,",",C4,"},")</f>
+        <v>{20,108,4}, {20,108,1},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>22</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>109</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>108.9</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>-9.9999999999994316E-2</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="20">
         <f t="shared" si="1"/>
         <v>108.95</v>
       </c>
-      <c r="H4" t="str">
+      <c r="F5" s="20">
         <f t="shared" si="2"/>
-        <v>{22,109}, {22,108.9},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
+        <v>108.842</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="3"/>
+        <v>{22,109}, {22,108,9},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
         <v>24</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>109.4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>109.6</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>0.19999999999998863</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="20">
         <f t="shared" si="1"/>
         <v>109.5</v>
       </c>
-      <c r="H5" t="str">
+      <c r="F6" s="20">
         <f t="shared" si="2"/>
-        <v>{24,109.4}, {24,109.6},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="7" customFormat="1">
-      <c r="A6" s="6">
+        <v>109.604</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>{24,109,4}, {24,109,6},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1">
+      <c r="A7" s="6">
         <v>26</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="6">
         <v>110.2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="6">
         <v>110.4</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>0.20000000000000284</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="20">
         <f t="shared" si="1"/>
         <v>110.30000000000001</v>
       </c>
-      <c r="H6" t="str">
+      <c r="F7" s="20">
         <f t="shared" si="2"/>
-        <v>{26,110.2}, {26,110.4},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
+        <v>110.366</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>{26,110,2}, {26,110,4},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
         <v>28</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>111</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>111.1</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>9.9999999999994316E-2</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="20">
         <f t="shared" si="1"/>
         <v>111.05</v>
       </c>
-      <c r="H7" t="str">
+      <c r="F8" s="20">
         <f t="shared" si="2"/>
-        <v>{28,111}, {28,111.1},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
+        <v>111.12799999999999</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>{28,111}, {28,111,1},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
         <v>30</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>111.9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>111.9</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="20">
         <f t="shared" si="1"/>
         <v>111.9</v>
       </c>
-      <c r="H8" t="str">
+      <c r="F9" s="20">
         <f t="shared" si="2"/>
-        <v>{30,111.9}, {30,111.9},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
+        <v>111.88999999999999</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>{30,111,9}, {30,111,9},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
         <v>32</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>112.7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>112.5</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
-      <c r="E9">
+      <c r="E10" s="20">
         <f t="shared" si="1"/>
         <v>112.6</v>
       </c>
-      <c r="H9" t="str">
+      <c r="F10" s="20">
         <f t="shared" si="2"/>
-        <v>{32,112.7}, {32,112.5},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
+        <v>112.65199999999999</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>{32,112,7}, {32,112,5},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
         <v>34</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>113.3</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>113.5</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>0.20000000000000284</v>
       </c>
-      <c r="E10">
+      <c r="E11" s="20">
         <f t="shared" si="1"/>
         <v>113.4</v>
       </c>
-      <c r="H10" t="str">
+      <c r="F11" s="20">
         <f t="shared" si="2"/>
-        <v>{34,113.3}, {34,113.5},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
+        <v>113.41399999999999</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>{34,113,3}, {34,113,5},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
         <v>36</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>114.1</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>114.2</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>0.10000000000000853</v>
       </c>
-      <c r="E11">
+      <c r="E12" s="20">
         <f t="shared" si="1"/>
         <v>114.15</v>
       </c>
-      <c r="H11" t="str">
+      <c r="F12" s="20">
         <f t="shared" si="2"/>
-        <v>{36,114.1}, {36,114.2},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
+        <v>114.17599999999999</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>{36,114,1}, {36,114,2},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
         <v>38</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>115</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>114.9</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>-9.9999999999994316E-2</v>
       </c>
-      <c r="E12">
+      <c r="E13" s="20">
         <f t="shared" si="1"/>
         <v>114.95</v>
       </c>
-      <c r="H12" t="str">
+      <c r="F13" s="20">
         <f t="shared" si="2"/>
-        <v>{38,115}, {38,114.9},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
+        <v>114.93799999999999</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v>{38,115}, {38,114,9},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
         <v>40</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>115.7</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>115.8</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>9.9999999999994316E-2</v>
       </c>
-      <c r="E13">
+      <c r="E14" s="20">
         <f t="shared" si="1"/>
         <v>115.75</v>
       </c>
-      <c r="H13" t="str">
+      <c r="F14" s="20">
         <f t="shared" si="2"/>
-        <v>{40,115.7}, {40,115.8},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
+        <v>115.69999999999999</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v>{40,115,7}, {40,115,8},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
         <v>42</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>116.6</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>116.4</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>-0.19999999999998863</v>
       </c>
-      <c r="E14">
+      <c r="E15" s="20">
         <f t="shared" si="1"/>
         <v>116.5</v>
       </c>
-      <c r="H14" t="str">
+      <c r="F15" s="20">
         <f t="shared" si="2"/>
-        <v>{42,116.6}, {42,116.4},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
+        <v>116.46199999999999</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>{42,116,6}, {42,116,4},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
         <v>44</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>117.3</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>117.4</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>0.10000000000000853</v>
       </c>
-      <c r="E15">
+      <c r="E16" s="20">
         <f t="shared" si="1"/>
         <v>117.35</v>
       </c>
-      <c r="H15" t="str">
+      <c r="F16" s="20">
         <f t="shared" si="2"/>
-        <v>{44,117.3}, {44,117.4},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
+        <v>117.22399999999999</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>{44,117,3}, {44,117,4},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
         <v>46</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>117.9</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>118.1</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <f t="shared" si="0"/>
         <v>0.19999999999998863</v>
       </c>
-      <c r="E16">
+      <c r="E17" s="20">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="H16" t="str">
+      <c r="F17" s="20">
         <f t="shared" si="2"/>
-        <v>{46,117.9}, {46,118.1},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
+        <v>117.98599999999999</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>{46,117,9}, {46,118,1},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
         <v>48</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>118.8</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>118.8</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E18" s="20">
         <f t="shared" si="1"/>
         <v>118.8</v>
       </c>
-      <c r="H17" t="str">
+      <c r="F18" s="20">
         <f t="shared" si="2"/>
-        <v>{48,118.8}, {48,118.8},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
+        <v>118.74799999999999</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>{48,118,8}, {48,118,8},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
         <v>50</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>119.5</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>119.7</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <f t="shared" si="0"/>
         <v>0.20000000000000284</v>
       </c>
-      <c r="E18">
+      <c r="E19" s="20">
         <f t="shared" si="1"/>
         <v>119.6</v>
       </c>
-      <c r="H18" t="str">
+      <c r="F19" s="20">
         <f t="shared" si="2"/>
-        <v>{50,119.5}, {50,119.7},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
+        <v>119.50999999999999</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>{50,119,5}, {50,119,7},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
         <v>52</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>120.8</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <v>120.6</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
-      <c r="E19">
+      <c r="E20" s="20">
         <f t="shared" si="1"/>
         <v>120.69999999999999</v>
       </c>
-      <c r="H19" t="str">
+      <c r="F20" s="20">
         <f t="shared" si="2"/>
-        <v>{52,120.8}, {52,120.6},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
+        <v>120.27199999999999</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>{52,120,8}, {52,120,6},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
         <v>54</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>121.1</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>121</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <f t="shared" si="0"/>
         <v>-9.9999999999994316E-2</v>
       </c>
-      <c r="E20">
+      <c r="E21" s="20">
         <f t="shared" si="1"/>
         <v>121.05</v>
       </c>
-      <c r="H20" t="str">
+      <c r="F21" s="20">
         <f t="shared" si="2"/>
-        <v>{54,121.1}, {54,121},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
+        <v>121.03399999999999</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>{54,121,1}, {54,121},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
         <v>56</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>121.7</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>121.7</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E22" s="20">
         <f t="shared" si="1"/>
         <v>121.7</v>
       </c>
-      <c r="H21" t="str">
+      <c r="F22" s="20">
         <f t="shared" si="2"/>
-        <v>{56,121.7}, {56,121.7},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6">
+        <v>121.79599999999999</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
+        <v>{56,121,7}, {56,121,7},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6">
         <v>58</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B23" s="6">
         <v>122.7</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C23" s="6">
         <v>123</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <f t="shared" si="0"/>
         <v>0.29999999999999716</v>
       </c>
-      <c r="E22">
+      <c r="E23" s="20">
         <f t="shared" si="1"/>
         <v>122.85</v>
       </c>
-      <c r="H22" t="str">
+      <c r="F23" s="20">
         <f t="shared" si="2"/>
-        <v>{58,122.7}, {58,123},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1">
+        <v>122.55799999999999</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
+        <v>{58,122,7}, {58,123},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
         <v>60</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
         <v>123.4</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>123.3</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <f t="shared" si="0"/>
         <v>-0.10000000000000853</v>
       </c>
-      <c r="E23">
+      <c r="E24" s="20">
         <f t="shared" si="1"/>
         <v>123.35</v>
       </c>
-      <c r="H23" t="str">
+      <c r="F24" s="20">
         <f t="shared" si="2"/>
-        <v>{60,123.4}, {60,123.3},</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6">
+        <v>123.32</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="3"/>
+        <v>{60,123,4}, {60,123,3},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="6">
         <v>62</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B25" s="6">
         <v>124.4</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C25" s="6">
         <v>124.1</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <f t="shared" si="0"/>
         <v>-0.30000000000001137</v>
       </c>
-      <c r="E24">
+      <c r="E25" s="20">
         <f t="shared" si="1"/>
         <v>124.25</v>
       </c>
-      <c r="H24" t="str">
+      <c r="F25" s="20">
         <f t="shared" si="2"/>
-        <v>{62,124.4}, {62,124.1},</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1">
+        <v>124.08199999999999</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v>{62,124,4}, {62,124,1},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
         <v>64</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>124.8</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>124.8</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E26" s="20">
         <f t="shared" si="1"/>
         <v>124.8</v>
       </c>
-      <c r="H25" t="str">
+      <c r="F26" s="20">
         <f t="shared" si="2"/>
-        <v>{64,124.8}, {64,124.8},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1">
+        <v>124.84399999999999</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="3"/>
+        <v>{64,124,8}, {64,124,8},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
         <v>66</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="1">
         <v>125.4</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <v>125.5</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <f t="shared" si="0"/>
         <v>9.9999999999994316E-2</v>
       </c>
-      <c r="E26">
+      <c r="E27" s="20">
         <f t="shared" si="1"/>
         <v>125.45</v>
       </c>
-      <c r="H26" t="str">
+      <c r="F27" s="20">
         <f t="shared" si="2"/>
-        <v>{66,125.4}, {66,125.5},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1">
+        <v>125.60599999999999</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="3"/>
+        <v>{66,125,4}, {66,125,5},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
         <v>68</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>126.3</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>126.3</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E28" s="20">
         <f t="shared" si="1"/>
         <v>126.3</v>
       </c>
-      <c r="H27" t="str">
+      <c r="F28" s="20">
         <f t="shared" si="2"/>
-        <v>{68,126.3}, {68,126.3},</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1">
+        <v>126.36799999999999</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="3"/>
+        <v>{68,126,3}, {68,126,3},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
         <v>70</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>127</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <v>126.8</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
-      <c r="E28">
+      <c r="E29" s="20">
         <f t="shared" si="1"/>
         <v>126.9</v>
       </c>
-      <c r="H28" t="str">
+      <c r="F29" s="20">
         <f t="shared" si="2"/>
-        <v>{70,127}, {70,126.8},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1">
+        <v>127.13</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v>{70,127}, {70,126,8},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
         <v>72</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30" s="1">
         <v>128</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>127.9</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>-9.9999999999994316E-2</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>127.95</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="2"/>
-        <v>{72,128}, {72,127.9},</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="5">
-        <v>74</v>
-      </c>
-      <c r="B30" s="5">
-        <v>128.6</v>
-      </c>
-      <c r="C30" s="5">
-        <v>128.5</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
         <v>-9.9999999999994316E-2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="20">
+        <f t="shared" si="1"/>
+        <v>127.95</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" si="2"/>
+        <v>127.892</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="3"/>
+        <v>{72,128}, {72,127,9},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5">
+        <v>74</v>
+      </c>
+      <c r="B31" s="5">
+        <v>128.6</v>
+      </c>
+      <c r="C31" s="5">
+        <v>128.5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999994316E-2</v>
+      </c>
+      <c r="E31" s="20">
         <f t="shared" si="1"/>
         <v>128.55000000000001</v>
       </c>
-      <c r="H30" t="str">
+      <c r="F31" s="20">
         <f t="shared" si="2"/>
-        <v>{74,128.6}, {74,128.5},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1">
+        <v>128.654</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="3"/>
+        <v>{74,128,6}, {74,128,5},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
         <v>76</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="1">
         <v>129.1</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <v>129.30000000000001</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <f t="shared" si="0"/>
         <v>0.20000000000001705</v>
       </c>
-      <c r="E31">
+      <c r="E32" s="20">
         <f t="shared" si="1"/>
         <v>129.19999999999999</v>
       </c>
-      <c r="H31" t="str">
+      <c r="F32" s="20">
         <f t="shared" si="2"/>
-        <v>{76,129.1}, {76,129.3},</v>
+        <v>129.416</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="3"/>
+        <v>{76,129,1}, {76,129,3},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="17">
+        <v>0</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="2"/>
+        <v>100.46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="17">
+        <v>100</v>
+      </c>
+      <c r="F34" s="20">
+        <f t="shared" si="2"/>
+        <v>138.56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <f>(E32-E3)/(E3*(A32-A3))</f>
+        <v>3.5966581723170187E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <f>(F32-F3)/(F3*(A32-A3))</f>
+        <v>3.5501966119383514E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <f>(F34-F33)/(A34*F33)</f>
+        <v>3.7925542504479402E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1909,34 +5012,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="8.875" style="10"/>
+    <col min="5" max="5" width="8.875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:8">
+      <c r="A1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="E1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="9">
         <v>18</v>
       </c>
@@ -1946,16 +5070,42 @@
       <c r="C3">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="E3" s="9">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>20.9</v>
+      </c>
+      <c r="G3">
+        <v>21.2</v>
+      </c>
+      <c r="H3" s="20">
+        <f>AVERAGE(F3:G3)</f>
+        <v>21.049999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="9">
         <v>20</v>
       </c>
       <c r="B4">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="E4" s="9">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" ref="H4:H32" si="0">AVERAGE(F4:G4)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="9">
         <v>22</v>
       </c>
@@ -1965,16 +5115,42 @@
       <c r="C5">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="E5" s="9">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G5">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H5" s="20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="9">
         <v>24</v>
       </c>
       <c r="B6">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="E6" s="9">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>16.2</v>
+      </c>
+      <c r="G6">
+        <v>16.7</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="0"/>
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="9">
         <v>26</v>
       </c>
@@ -1984,16 +5160,42 @@
       <c r="C7">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="E7" s="9">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>15.9</v>
+      </c>
+      <c r="G7">
+        <v>16.2</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="0"/>
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="9">
         <v>28</v>
       </c>
       <c r="B8">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="E8" s="9">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>13.7</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="0"/>
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="9">
         <v>30</v>
       </c>
@@ -2003,8 +5205,21 @@
       <c r="C9">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="E9" s="9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>13.3</v>
+      </c>
+      <c r="G9">
+        <v>13.3</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" si="0"/>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="9">
         <v>32</v>
       </c>
@@ -2014,8 +5229,21 @@
       <c r="C10">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="E10" s="9">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>11.5</v>
+      </c>
+      <c r="G10">
+        <v>11.4</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="0"/>
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="9">
         <v>34</v>
       </c>
@@ -2025,8 +5253,21 @@
       <c r="C11">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="E11" s="9">
+        <v>34</v>
+      </c>
+      <c r="F11">
+        <v>10.7</v>
+      </c>
+      <c r="G11">
+        <v>10.8</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="0"/>
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="9">
         <v>36</v>
       </c>
@@ -2036,16 +5277,42 @@
       <c r="C12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="E12" s="9">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="0"/>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="9">
         <v>38</v>
       </c>
       <c r="B13">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="E13" s="9">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>8.1</v>
+      </c>
+      <c r="G13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="0"/>
+        <v>8.1499999999999986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="9">
         <v>40</v>
       </c>
@@ -2055,8 +5322,21 @@
       <c r="C14">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="E14" s="9">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>6.7</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="0"/>
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="9">
         <v>42</v>
       </c>
@@ -2066,8 +5346,21 @@
       <c r="C15" s="16">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" s="11" customFormat="1">
+      <c r="E15" s="9">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>5.3</v>
+      </c>
+      <c r="G15" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="11" customFormat="1">
       <c r="A16" s="9">
         <v>44</v>
       </c>
@@ -2075,8 +5368,21 @@
         <v>4.3</v>
       </c>
       <c r="C16"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16" s="9">
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <v>4.3</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="0"/>
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="12">
         <v>46</v>
       </c>
@@ -2086,8 +5392,21 @@
       <c r="C17" s="14">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17" s="12">
+        <v>46</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2.8</v>
+      </c>
+      <c r="G17" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="9">
         <v>48</v>
       </c>
@@ -2097,8 +5416,21 @@
       <c r="C18">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18" s="9">
+        <v>48</v>
+      </c>
+      <c r="F18">
+        <v>1.5</v>
+      </c>
+      <c r="G18">
+        <v>1.8</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="9">
         <v>50</v>
       </c>
@@ -2108,8 +5440,21 @@
       <c r="C19">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19" s="9">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>0.4</v>
+      </c>
+      <c r="G19">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="9">
         <v>52</v>
       </c>
@@ -2119,8 +5464,21 @@
       <c r="C20">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="E20" s="9">
+        <v>52</v>
+      </c>
+      <c r="F20">
+        <v>-1</v>
+      </c>
+      <c r="G20">
+        <v>-0.8</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="0"/>
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="9">
         <v>54</v>
       </c>
@@ -2130,8 +5488,21 @@
       <c r="C21">
         <v>-1.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="E21" s="9">
+        <v>54</v>
+      </c>
+      <c r="F21">
+        <v>-2.4</v>
+      </c>
+      <c r="G21">
+        <v>-1.9</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="0"/>
+        <v>-2.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="9">
         <v>56</v>
       </c>
@@ -2141,8 +5512,21 @@
       <c r="C22">
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="E22" s="9">
+        <v>56</v>
+      </c>
+      <c r="F22" s="15">
+        <v>-3.4</v>
+      </c>
+      <c r="G22">
+        <v>-3.5</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="0"/>
+        <v>-3.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="9">
         <v>58</v>
       </c>
@@ -2152,8 +5536,21 @@
       <c r="C23" s="15">
         <v>-9.8000000000000007</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="E23" s="9">
+        <v>58</v>
+      </c>
+      <c r="F23" s="15">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="G23" s="15">
+        <v>-4.8</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="0"/>
+        <v>-4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="9">
         <v>60</v>
       </c>
@@ -2163,8 +5560,21 @@
       <c r="C24">
         <v>-6</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="E24" s="9">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>-5.7</v>
+      </c>
+      <c r="G24">
+        <v>-6</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="0"/>
+        <v>-5.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="9">
         <v>62</v>
       </c>
@@ -2174,8 +5584,21 @@
       <c r="C25">
         <v>-7.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="E25" s="9">
+        <v>62</v>
+      </c>
+      <c r="F25">
+        <v>-7.2</v>
+      </c>
+      <c r="G25">
+        <v>-7.2</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="0"/>
+        <v>-7.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="9">
         <v>64</v>
       </c>
@@ -2185,8 +5608,21 @@
       <c r="C26" s="15">
         <v>-17.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="E26" s="9">
+        <v>64</v>
+      </c>
+      <c r="F26" s="15">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="G26" s="15">
+        <v>-8.6</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="0"/>
+        <v>-8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="9">
         <v>66</v>
       </c>
@@ -2196,8 +5632,21 @@
       <c r="C27">
         <v>-10.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="E27" s="9">
+        <v>66</v>
+      </c>
+      <c r="F27" s="15">
+        <v>-10</v>
+      </c>
+      <c r="G27">
+        <v>-10.1</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="0"/>
+        <v>-10.050000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="9">
         <v>68</v>
       </c>
@@ -2207,8 +5656,21 @@
       <c r="C28">
         <v>-10.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="E28" s="9">
+        <v>68</v>
+      </c>
+      <c r="F28" s="10">
+        <v>-10.8</v>
+      </c>
+      <c r="G28">
+        <v>-10.9</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="0"/>
+        <v>-10.850000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="9">
         <v>70</v>
       </c>
@@ -2218,8 +5680,21 @@
       <c r="C29">
         <v>-12.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="E29" s="9">
+        <v>70</v>
+      </c>
+      <c r="F29" s="15">
+        <v>-12.5</v>
+      </c>
+      <c r="G29">
+        <v>-12.3</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="0"/>
+        <v>-12.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="9">
         <v>72</v>
       </c>
@@ -2229,8 +5704,21 @@
       <c r="C30">
         <v>-13.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="E30" s="9">
+        <v>72</v>
+      </c>
+      <c r="F30" s="15">
+        <v>-13.6</v>
+      </c>
+      <c r="G30">
+        <v>-13.8</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="0"/>
+        <v>-13.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="9">
         <v>74</v>
       </c>
@@ -2240,8 +5728,21 @@
       <c r="C31">
         <v>-15</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="E31" s="9">
+        <v>74</v>
+      </c>
+      <c r="F31" s="15">
+        <v>-15</v>
+      </c>
+      <c r="G31">
+        <v>-15</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="9">
         <v>76</v>
       </c>
@@ -2251,25 +5752,28 @@
       <c r="C32">
         <v>-15.9</v>
       </c>
+      <c r="E32" s="9">
+        <v>76</v>
+      </c>
+      <c r="F32" s="15">
+        <v>-16.2</v>
+      </c>
+      <c r="G32">
+        <v>-15.9</v>
+      </c>
+      <c r="H32" s="20">
+        <f t="shared" si="0"/>
+        <v>-16.05</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>